--- a/data_excel/582.xlsx
+++ b/data_excel/582.xlsx
@@ -108,9 +108,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -125,6 +122,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +547,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,13 +691,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -744,16 +745,16 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
